--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3762048.664754252</v>
+        <v>3866219.996442629</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498525</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7398029.271423503</v>
+        <v>7379316.997211382</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>312.3150588154502</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>356.6471086978667</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>80.71320514461856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>40.92686164700694</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>345.6545339872155</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1060,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>59.02765416819867</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>99.65579024854939</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>170.5076486447242</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>284.7781523974826</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>151.143182871579</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>158.6538430757023</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>13.03790159951732</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2017,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2135,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2144,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2239,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>30.97191586387646</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>102.1557845699813</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>50.06209150957608</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>131.4093105446495</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053468</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545305</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652577</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808192</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>230.0898280815566</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695591</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>73.97774435452114</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972046</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545305</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652577</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808192</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>193.3679902607853</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652687</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808192</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652577</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808192</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096051</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972048</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>143.1086912616888</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4147,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>107.4021082756239</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>202.3807982253696</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2291.674678112796</v>
+        <v>1489.525984198214</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1489.525984198214</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1131.260285591464</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1131.260285591464</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176918</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W2" t="n">
-        <v>2678.274518176918</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X2" t="n">
-        <v>2678.274518176918</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="Y2" t="n">
-        <v>2678.274518176918</v>
+        <v>1876.125824262336</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>760.6631235951729</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.778206672847</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1391.09371846696</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W4" t="n">
-        <v>1391.09371846696</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X4" t="n">
-        <v>1163.104167568943</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y4" t="n">
-        <v>942.3115884254127</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1661.138951213863</v>
+        <v>1182.87310169792</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.176434273451</v>
+        <v>813.9105847575083</v>
       </c>
       <c r="D5" t="n">
-        <v>933.9107356667005</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="E5" t="n">
-        <v>933.9107356667005</v>
+        <v>69.85663355251361</v>
       </c>
       <c r="F5" t="n">
-        <v>522.924830877093</v>
+        <v>62.91113280331014</v>
       </c>
       <c r="G5" t="n">
-        <v>107.8523807220894</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2308.758267664334</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2308.758267664334</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450754</v>
+        <v>2308.758267664334</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189674</v>
+        <v>1959.612273737853</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.138951213863</v>
+        <v>1569.472941762042</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>846.3061319081669</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>846.3749096777597</v>
+        <v>919.6966947956497</v>
       </c>
       <c r="C7" t="n">
-        <v>677.4387267498528</v>
+        <v>750.7605118677428</v>
       </c>
       <c r="D7" t="n">
-        <v>527.322087337517</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1576.822226975306</v>
       </c>
       <c r="V7" t="n">
-        <v>1356.675339798491</v>
+        <v>1322.137738769419</v>
       </c>
       <c r="W7" t="n">
-        <v>1256.012925406017</v>
+        <v>1322.137738769419</v>
       </c>
       <c r="X7" t="n">
-        <v>1028.023374507999</v>
+        <v>1322.137738769419</v>
       </c>
       <c r="Y7" t="n">
-        <v>1028.023374507999</v>
+        <v>1101.345159625889</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1878.169188758594</v>
+        <v>2148.434869859537</v>
       </c>
       <c r="C8" t="n">
-        <v>1509.206671818182</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1150.940973211432</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>765.1527206131875</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>354.16681582358</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758594</v>
+        <v>2535.034709923659</v>
       </c>
     </row>
     <row r="9">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>531.7821255545682</v>
+        <v>531.7821255545683</v>
       </c>
       <c r="C10" t="n">
-        <v>362.8459426266613</v>
+        <v>362.8459426266614</v>
       </c>
       <c r="D10" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,13 +4986,13 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1774.624666400029</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
         <v>1485.521799525673</v>
@@ -4999,13 +5001,13 @@
         <v>1230.837311319786</v>
       </c>
       <c r="W10" t="n">
-        <v>941.4201412828253</v>
+        <v>941.4201412828254</v>
       </c>
       <c r="X10" t="n">
-        <v>713.4305903848079</v>
+        <v>713.4305903848081</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.4305903848079</v>
+        <v>713.4305903848081</v>
       </c>
     </row>
     <row r="11">
@@ -5021,19 +5023,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192548</v>
@@ -5054,34 +5056,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>3033.629298638936</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>2864.693115711029</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>2714.576476298693</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>2566.6633827163</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>4208.16155175357</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>3953.477063547683</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>3664.059893510723</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>3436.070342612706</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>3215.277763469176</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5604,16 +5606,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,28 +5740,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5768,28 +5770,28 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5835,22 +5837,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E22" t="n">
-        <v>197.0043242297712</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>197.0043242297712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>197.0043242297712</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +6001,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>2222.001901828445</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>783.5579673960133</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>614.6217844681064</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D25" t="n">
-        <v>464.5051450557706</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557706</v>
+        <v>432.9862109052762</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578603</v>
+        <v>286.0962634073658</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578603</v>
+        <v>286.0962634073658</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>144.3844322495639</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>783.5579673960133</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6217,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6309,22 +6311,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2815.530845237133</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>2646.594662309226</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>2646.594662309226</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>2646.594662309226</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>4279.13832500757</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U28" t="n">
-        <v>3990.063098351768</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>3735.378610145881</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>3445.96144010892</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>3217.971889210903</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>2997.179310067373</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6455,19 +6457,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6479,19 +6481,19 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319331</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656825</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150031</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942652</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580112</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345475</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384019</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1268.333101637269</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1040.343550739252</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>819.5509715957215</v>
       </c>
     </row>
     <row r="32">
@@ -6692,37 +6694,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6792,13 +6794,13 @@
         <v>1468.439756756785</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380727</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311322</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1173.392154561022</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6919,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6929,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,34 +6952,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7023,13 +7025,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319331</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656825</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150031</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>788.0191461778176</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,13 +7186,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319331</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656825</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150031</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942664</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580124</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345486</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384031</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7388,25 +7390,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
@@ -7415,13 +7417,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,28 +7432,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7494,22 +7496,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319319</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656812</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1726.686454602137</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1437.269284565176</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1209.279733667159</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7646,10 +7648,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>3175.341129796739</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>3006.404946868832</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>2708.375213874103</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T46" t="n">
-        <v>2338.476105524075</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U46" t="n">
-        <v>2049.400878868273</v>
+        <v>4151.857387650098</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662386</v>
+        <v>3897.172899444211</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>3607.75572940725</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>3379.766178509233</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>3175.341129796739</v>
       </c>
     </row>
   </sheetData>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>240.4465442417443</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,19 +8291,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>129.7511347056861</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.653499817998</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9416,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>273.1465727897268</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>117.6435571543359</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>38.13892827624257</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>31.20374480898944</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>87.17534280744528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194146</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>56.43317025503436</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>105.8542358274162</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>25.21666309130944</v>
       </c>
     </row>
     <row r="38">
@@ -25549,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>35.40333084624518</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>109.0289520621392</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>110.0033420516644</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>16.20385512672519</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>644846.5871549922</v>
+        <v>653165.2856564913</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>644846.5871549922</v>
+        <v>653165.2856564913</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>634077.8302699272</v>
+        <v>634077.8302699273</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>634077.8302699272</v>
+        <v>634077.8302699273</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>644846.5871549922</v>
+        <v>634077.8302699272</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>644846.5871549922</v>
+        <v>634077.8302699273</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>644846.5871549922</v>
+        <v>634077.8302699273</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>644846.5871549922</v>
+        <v>634077.8302699272</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>644846.5871549922</v>
+        <v>634077.8302699272</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>634077.8302699272</v>
+        <v>634077.8302699273</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="C2" t="n">
+        <v>800515.7256176765</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.7256176755</v>
       </c>
-      <c r="D2" t="n">
-        <v>800515.7256176757</v>
-      </c>
       <c r="E2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977562</v>
       </c>
       <c r="F2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="G2" t="n">
         <v>786967.9346977558</v>
-      </c>
-      <c r="G2" t="n">
-        <v>786967.9346977555</v>
       </c>
       <c r="H2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="I2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="L2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="J2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="K2" t="n">
-        <v>800515.7256176771</v>
-      </c>
-      <c r="L2" t="n">
-        <v>800515.7256176759</v>
-      </c>
       <c r="M2" t="n">
-        <v>800515.7256176769</v>
+        <v>786967.9346977553</v>
       </c>
       <c r="N2" t="n">
-        <v>800515.7256176769</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="O2" t="n">
-        <v>800515.725617676</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="P2" t="n">
         <v>786967.934697756</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.1404403381</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363181</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819082</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>136726.2736921025</v>
+      </c>
+      <c r="C4" t="n">
+        <v>136726.2736921026</v>
+      </c>
+      <c r="D4" t="n">
         <v>88524.23512810784</v>
       </c>
-      <c r="C4" t="n">
-        <v>88524.23512810783</v>
-      </c>
-      <c r="D4" t="n">
-        <v>88524.23512810789</v>
-      </c>
       <c r="E4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756626</v>
       </c>
       <c r="F4" t="n">
         <v>9337.20035675659</v>
@@ -26433,31 +26435,31 @@
         <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756559</v>
       </c>
       <c r="I4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9337.200356756548</v>
+      </c>
+      <c r="L4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="K4" t="n">
-        <v>17328.05961985013</v>
-      </c>
-      <c r="L4" t="n">
-        <v>17328.05961985009</v>
-      </c>
       <c r="M4" t="n">
-        <v>17328.05961985007</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
-        <v>17328.05961985007</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="O4" t="n">
-        <v>17328.05961985007</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-724687.1957994177</v>
+        <v>-543900.1040901904</v>
       </c>
       <c r="C6" t="n">
-        <v>604057.5499281744</v>
+        <v>570851.6794857292</v>
       </c>
       <c r="D6" t="n">
-        <v>604057.5499281746</v>
+        <v>411430.4094878362</v>
       </c>
       <c r="E6" t="n">
-        <v>351095.7427097369</v>
+        <v>351095.7427097374</v>
       </c>
       <c r="F6" t="n">
+        <v>676508.2045170923</v>
+      </c>
+      <c r="G6" t="n">
         <v>676508.2045170922</v>
       </c>
-      <c r="G6" t="n">
-        <v>676508.2045170919</v>
-      </c>
       <c r="H6" t="n">
-        <v>676508.2045170922</v>
+        <v>676508.2045170921</v>
       </c>
       <c r="I6" t="n">
         <v>676508.2045170921</v>
       </c>
       <c r="J6" t="n">
-        <v>458977.0021198146</v>
+        <v>508903.0267071094</v>
       </c>
       <c r="K6" t="n">
-        <v>660595.8321502798</v>
+        <v>676508.2045170919</v>
       </c>
       <c r="L6" t="n">
-        <v>680023.5501439105</v>
+        <v>628214.2345089014</v>
       </c>
       <c r="M6" t="n">
-        <v>594968.5222083995</v>
+        <v>591453.1765815797</v>
       </c>
       <c r="N6" t="n">
-        <v>680023.5501439114</v>
+        <v>676508.2045170922</v>
       </c>
       <c r="O6" t="n">
-        <v>680023.5501439106</v>
+        <v>676508.2045170923</v>
       </c>
       <c r="P6" t="n">
         <v>676508.2045170923</v>
@@ -26692,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.875793255733101e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203976</v>
+        <v>4.875793255733101e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
+        <v>640.5848321000385</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,22 +26807,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.875793255733101e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.875793255733101e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.875793255733101e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.875793255733101e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27381,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>52.95783295555736</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50.22893704384478</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,13 +27435,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27537,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>86.53361595400928</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>253.6809027403135</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>24.07656669125356</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>227.1994999530019</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>186.8672080880416</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>194.7652431262834</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>126.1435732559709</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>68.4057664045902</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>127.5579951299106</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28138,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>7.791468619714202e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -29560,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31841,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>436.4492970000073</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -32017,7 +32019,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32078,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32101,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32324,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32336,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32470,34 +32472,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663297</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>400.8433522134838</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647493</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>265.5442652399247</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338208</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>265.5442652399242</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33506,31 +33508,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>574.6535388222617</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>213.1625787491746</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>300.5543663814922</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>437.853104691376</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34214,25 +34216,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>297.7596336167232</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34384,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34442,25 +34444,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>658.2124561388958</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>200.3460366764704</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>490.1260733652765</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>427.4314953435363</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>302.474889585677</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35665,7 +35667,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35726,19 +35728,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>191.358233988438</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35749,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35972,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396434</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>140.6875824748321</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>266.8689447991536</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>477.985332142731</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>134.2025531565914</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394658</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>134.202553156591</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902943</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>432.0572943778172</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>228.3679864663302</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>161.999986601618</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>163.785226202393</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38032,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>526.8707440555626</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>57.74979223202591</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3866219.996442629</v>
+        <v>3862124.354937864</v>
       </c>
     </row>
     <row r="7">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>356.6471086978667</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>316.0329037710204</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -825,10 +825,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>90.69811547110072</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>50.98074812542808</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,13 +904,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>307.7536523831696</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>345.6545339872155</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1059,22 +1059,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>59.02765416819867</v>
+        <v>239.3135884893132</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>170.5076486447242</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>224.7411810187709</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1299,16 +1299,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>71.67037196991771</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>158.6538430757023</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695349</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>13.03790159951732</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>30.97191586387646</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>50.06209150957608</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695527</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701341</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881303</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.295034370327</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>230.0898280815566</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695591</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.97774435452114</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3331,10 +3331,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>193.3679902607853</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3556,7 +3556,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>110.0177171766861</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>143.1086912616888</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>91.89996056624841</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>202.3807982253696</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1489.525984198214</v>
+        <v>781.4578466818737</v>
       </c>
       <c r="C2" t="n">
-        <v>1489.525984198214</v>
+        <v>781.4578466818737</v>
       </c>
       <c r="D2" t="n">
-        <v>1131.260285591464</v>
+        <v>781.4578466818737</v>
       </c>
       <c r="E2" t="n">
-        <v>1131.260285591464</v>
+        <v>781.4578466818737</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>370.4719418922661</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4366,16 +4366,16 @@
         <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.89447953245</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W2" t="n">
-        <v>1876.125824262336</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="X2" t="n">
-        <v>1876.125824262336</v>
+        <v>1171.597178657685</v>
       </c>
       <c r="Y2" t="n">
-        <v>1876.125824262336</v>
+        <v>781.4578466818737</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>665.1026499885492</v>
+        <v>461.9138669598626</v>
       </c>
       <c r="C4" t="n">
-        <v>496.1664670606423</v>
+        <v>292.9776840319557</v>
       </c>
       <c r="D4" t="n">
-        <v>346.0498276483066</v>
+        <v>142.86104461962</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4524,16 +4524,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1584.950414897297</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>1295.533244860336</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X4" t="n">
-        <v>1067.543693962319</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y4" t="n">
-        <v>846.7511148187889</v>
+        <v>643.5623317901023</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1182.87310169792</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="C5" t="n">
-        <v>813.9105847575083</v>
+        <v>1136.07951058498</v>
       </c>
       <c r="D5" t="n">
-        <v>455.6448861507579</v>
+        <v>777.8138119782291</v>
       </c>
       <c r="E5" t="n">
-        <v>69.85663355251361</v>
+        <v>777.8138119782291</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331014</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362815</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872916</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664334</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V5" t="n">
-        <v>2308.758267664334</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W5" t="n">
-        <v>2308.758267664334</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X5" t="n">
-        <v>1959.612273737853</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y5" t="n">
-        <v>1569.472941762042</v>
+        <v>1505.042027525391</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>238.427330237016</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>846.3061319081669</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687205</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>919.6966947956497</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C7" t="n">
-        <v>750.7605118677428</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="D7" t="n">
-        <v>600.6438724554071</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="E7" t="n">
-        <v>452.7307788730139</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312195</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4758,19 +4758,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1576.822226975306</v>
+        <v>1394.715222610545</v>
       </c>
       <c r="V7" t="n">
-        <v>1322.137738769419</v>
+        <v>1140.030734404658</v>
       </c>
       <c r="W7" t="n">
-        <v>1322.137738769419</v>
+        <v>850.6135643676972</v>
       </c>
       <c r="X7" t="n">
-        <v>1322.137738769419</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="Y7" t="n">
-        <v>1101.345159625889</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2148.434869859537</v>
+        <v>2232.598233480555</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1863.635716540144</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1505.370017933393</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1119.581765335149</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>708.5958605455414</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>293.5234103905379</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4819,7 +4819,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>2535.034709923659</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X8" t="n">
-        <v>2535.034709923659</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="Y8" t="n">
-        <v>2535.034709923659</v>
+        <v>2619.198073544677</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>531.7821255545683</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>362.8459426266614</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>212.7293032143257</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143257</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218343</v>
@@ -4965,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="U10" t="n">
-        <v>1485.521799525673</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1230.837311319786</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>941.4201412828254</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>713.4305903848081</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.4305903848081</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5129,19 +5129,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3033.629298638936</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>2864.693115711029</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>2714.576476298693</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>2566.6633827163</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>2419.77343521839</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>2419.77343521839</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>4440.932614305899</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>4221.33114932884</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>4208.16155175357</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>3953.477063547683</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>3664.059893510723</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>3436.070342612706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>3215.277763469176</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832229</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.47159895366</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1978.396372297858</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134626</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5515,10 +5515,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,31 +5743,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5794,7 +5794,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517213</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O21" t="n">
-        <v>2252.2213777565</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>580.8993044876693</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,10 +6001,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>580.8993044876693</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>580.8993044876693</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>432.9862109052762</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>286.0962634073658</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>286.0962634073658</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>144.3844322495639</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,7 +6238,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6253,13 +6253,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123002</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797747</v>
@@ -6408,28 +6408,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M30" t="n">
-        <v>1174.766565373399</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>637.9025067654818</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1268.333101637269</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1040.343550739252</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>819.5509715957215</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6697,10 +6697,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.852361107581</v>
@@ -6727,7 +6727,7 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
         <v>484.8112968429802</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1394.184733704552</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1173.392154561022</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6934,28 +6934,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951537</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>788.0191461778176</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7162,10 +7162,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517213</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O39" t="n">
-        <v>2252.2213777565</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
         <v>402.7245934908938</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7390,70 +7390,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>806.8386896933887</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>637.9025067654818</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1726.686454602137</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1437.269284565176</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1209.279733667159</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>988.4871545236284</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,37 +7663,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3175.341129796739</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>3006.404946868832</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>2856.288307456496</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>2708.375213874103</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>4440.9326143059</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>4151.857387650098</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>3897.172899444211</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>3607.75572940725</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>3379.766178509233</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>3175.341129796739</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>294.8344935184725</v>
       </c>
       <c r="P3" t="n">
-        <v>240.4465442417443</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
-        <v>129.7511347056861</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.653499817998</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>273.1465727897268</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>117.6435571543359</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>31.20374480898944</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>56.43317025503436</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.8542358274162</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>25.21666309130944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>35.40333084624518</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>109.0289520621392</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.20385512672519</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>634077.8302699272</v>
+        <v>634077.8302699273</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>634077.8302699273</v>
+        <v>634077.8302699272</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>634077.8302699273</v>
+        <v>634077.8302699272</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>634077.8302699273</v>
+        <v>634077.8302699272</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>634077.8302699273</v>
+        <v>634077.8302699272</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>634077.8302699273</v>
+        <v>634077.8302699272</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176765</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176755</v>
+        <v>800515.7256176757</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977562</v>
+        <v>786967.934697756</v>
       </c>
       <c r="F2" t="n">
         <v>786967.934697756</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="H2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.934697756</v>
       </c>
       <c r="J2" t="n">
         <v>786967.9346977556</v>
       </c>
       <c r="K2" t="n">
-        <v>786967.9346977555</v>
+        <v>786967.934697756</v>
       </c>
       <c r="L2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.9346977553</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="N2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.934697756</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977557</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403381</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.755561243044213e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819082</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,34 +26420,34 @@
         <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921026</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810784</v>
+        <v>88524.23512810782</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756626</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="H4" t="n">
         <v>9337.20035675659</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9337.200356756559</v>
       </c>
       <c r="I4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675663</v>
       </c>
       <c r="K4" t="n">
+        <v>9337.200356756515</v>
+      </c>
+      <c r="L4" t="n">
         <v>9337.200356756548</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
         <v>9337.200356756592</v>
@@ -26456,10 +26456,10 @@
         <v>9337.200356756592</v>
       </c>
       <c r="O4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="P4" t="n">
         <v>9337.20035675659</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26524,46 +26524,46 @@
         <v>-543900.1040901904</v>
       </c>
       <c r="C6" t="n">
-        <v>570851.6794857292</v>
+        <v>570851.6794857294</v>
       </c>
       <c r="D6" t="n">
-        <v>411430.4094878362</v>
+        <v>411430.4094878366</v>
       </c>
       <c r="E6" t="n">
-        <v>351095.7427097374</v>
+        <v>350748.3634553804</v>
       </c>
       <c r="F6" t="n">
-        <v>676508.2045170923</v>
+        <v>676160.8252627354</v>
       </c>
       <c r="G6" t="n">
-        <v>676508.2045170922</v>
+        <v>676160.8252627351</v>
       </c>
       <c r="H6" t="n">
-        <v>676508.2045170921</v>
+        <v>676160.8252627352</v>
       </c>
       <c r="I6" t="n">
-        <v>676508.2045170921</v>
+        <v>676160.8252627354</v>
       </c>
       <c r="J6" t="n">
-        <v>508903.0267071094</v>
+        <v>508555.6474527522</v>
       </c>
       <c r="K6" t="n">
-        <v>676508.2045170919</v>
+        <v>676160.825262735</v>
       </c>
       <c r="L6" t="n">
-        <v>628214.2345089014</v>
+        <v>627866.8552545444</v>
       </c>
       <c r="M6" t="n">
-        <v>591453.1765815797</v>
+        <v>591105.7973272232</v>
       </c>
       <c r="N6" t="n">
-        <v>676508.2045170922</v>
+        <v>676160.8252627351</v>
       </c>
       <c r="O6" t="n">
-        <v>676508.2045170923</v>
+        <v>676160.8252627354</v>
       </c>
       <c r="P6" t="n">
-        <v>676508.2045170923</v>
+        <v>676160.8252627351</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>4.875793255733101e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26712,7 +26712,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.875793255733101e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4.875793255733101e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.875793255733101e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,13 +26977,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.875793255733101e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.875793255733101e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>50.22893704384478</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>95.51479900193362</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27545,16 +27545,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>55.73584717546845</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27596,7 +27596,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>201.1568951983999</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>99.12239335854184</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>24.07656669125356</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,16 +27830,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>227.1994999530019</v>
+        <v>46.91356563188745</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>194.7652431262834</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>69.86658336854956</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>17.26178070012961</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>127.5579951299106</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.791468619714202e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -29334,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29562,13 +29562,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>-1.676880856393836e-12</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31849,7 +31849,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31858,13 +31858,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>436.4492970000073</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,19 +32074,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647499</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32101,7 +32101,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,34 +32311,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>467.7715423565662</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>638.9422653403558</v>
       </c>
       <c r="P21" t="n">
-        <v>400.8433522134838</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,13 +33037,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,22 +33259,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>246.9596973201444</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>265.5442652399242</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437244</v>
@@ -33283,10 +33283,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33496,16 +33496,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>324.9782573297443</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>574.6535388222617</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,22 +33733,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>416.4300581532619</v>
+        <v>467.7715423565655</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
@@ -33757,10 +33757,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33915,10 +33915,10 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33970,19 +33970,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>361.1081696176607</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
@@ -33991,13 +33991,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>437.853104691376</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>297.7596336167232</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>200.3460366764704</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>630.2591755145955</v>
       </c>
       <c r="P3" t="n">
-        <v>490.1260733652765</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
-        <v>427.4314953435363</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000385</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35497,7 +35497,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35506,13 +35506,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>302.474889585677</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427316</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35749,7 +35749,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>325.6375084345479</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>496.3460208959114</v>
       </c>
       <c r="P21" t="n">
-        <v>266.8689447991536</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>108.4053175402702</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>134.202553156591</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>557.48457599928</v>
@@ -36931,10 +36931,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>187.1368183553853</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>432.0572943778172</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>274.2960242312436</v>
+        <v>325.6375084345472</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
@@ -37405,10 +37405,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37563,10 +37563,10 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>222.5537898377865</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
@@ -37639,13 +37639,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>303.8786972770457</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>57.74979223202591</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3862124.354937864</v>
+        <v>3863884.885240649</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7379316.997211382</v>
+        <v>7379316.997211381</v>
       </c>
     </row>
     <row r="11">
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>316.0329037710204</v>
+        <v>316.0329037710208</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>307.7536523831696</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>111.7154785701927</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>239.3135884893132</v>
+        <v>239.3135884893127</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>224.7411810187709</v>
+        <v>224.7411810187696</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>71.67037196991666</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>71.67037196991771</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187876</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>255.3192535276011</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612634</v>
       </c>
       <c r="U22" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695527</v>
+        <v>83.7025149569541</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881303</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.295034370327</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>55.52079624060465</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>206.5509998577711</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4146,13 +4146,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>91.89996056624841</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>181.6459914616335</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>781.4578466818737</v>
+        <v>781.4578466818741</v>
       </c>
       <c r="C2" t="n">
-        <v>781.4578466818737</v>
+        <v>781.4578466818741</v>
       </c>
       <c r="D2" t="n">
-        <v>781.4578466818737</v>
+        <v>781.4578466818741</v>
       </c>
       <c r="E2" t="n">
-        <v>781.4578466818737</v>
+        <v>781.4578466818741</v>
       </c>
       <c r="F2" t="n">
-        <v>370.4719418922661</v>
+        <v>370.4719418922666</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
         <v>795.755353087291</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>1897.831592188879</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W2" t="n">
-        <v>1545.062936918765</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="X2" t="n">
-        <v>1171.597178657685</v>
+        <v>1171.597178657686</v>
       </c>
       <c r="Y2" t="n">
-        <v>781.4578466818737</v>
+        <v>781.4578466818741</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217532</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
         <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878148</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710445</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4473,31 +4473,31 @@
         <v>142.86104461962</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1505.042027525391</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="C5" t="n">
-        <v>1136.07951058498</v>
+        <v>1011.380303111449</v>
       </c>
       <c r="D5" t="n">
-        <v>777.8138119782291</v>
+        <v>653.1146045046987</v>
       </c>
       <c r="E5" t="n">
-        <v>777.8138119782291</v>
+        <v>653.1146045046987</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>242.1286997150912</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800312</v>
+        <v>230.4643534797841</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872916</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4585,34 +4585,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056585</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.507785786471</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X5" t="n">
-        <v>1505.042027525391</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="Y5" t="n">
-        <v>1505.042027525391</v>
+        <v>1380.342820051861</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380223</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4704,46 +4704,46 @@
         <v>220.18296949591</v>
       </c>
       <c r="C7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2232.598233480555</v>
+        <v>2232.598233480554</v>
       </c>
       <c r="C8" t="n">
-        <v>1863.635716540144</v>
+        <v>1863.635716540142</v>
       </c>
       <c r="D8" t="n">
-        <v>1505.370017933393</v>
+        <v>1505.370017933392</v>
       </c>
       <c r="E8" t="n">
-        <v>1119.581765335149</v>
+        <v>1119.581765335148</v>
       </c>
       <c r="F8" t="n">
-        <v>708.5958605455414</v>
+        <v>708.5958605455401</v>
       </c>
       <c r="G8" t="n">
-        <v>293.5234103905379</v>
+        <v>293.5234103905365</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="Y8" t="n">
-        <v>2619.198073544677</v>
+        <v>2619.198073544676</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4904,7 +4904,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
         <v>2564.909189125857</v>
@@ -4913,16 +4913,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>752.7622949738575</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>583.8261120459506</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>433.7094726336148</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>285.7963790512217</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>138.9064315533114</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>138.9064315533114</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>138.9064315533114</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>934.4107598040972</v>
       </c>
     </row>
     <row r="11">
@@ -5020,22 +5020,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168621</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5047,13 +5047,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5074,16 +5074,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5129,10 +5129,10 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1242.848833509951</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1014.859282611934</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>794.0667034684034</v>
       </c>
     </row>
     <row r="14">
@@ -5266,22 +5266,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5354,16 +5354,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
         <v>680.0291294438176</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5506,16 +5506,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5591,16 +5591,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684977</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
         <v>913.2907898187001</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5740,34 +5740,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5992,7 +5992,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6126,22 +6126,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,43 +6223,43 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123002</v>
@@ -6302,7 +6302,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6387,49 +6387,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6478,22 +6478,22 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,22 +6536,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452613</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718132</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N30" t="n">
         <v>1577.52840832642</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,22 +6712,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245705</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
         <v>776.1751066403293</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6931,55 +6931,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684978</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898186995</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373306</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612593</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
         <v>2516.421633107662</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921476</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898186995</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373306</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
         <v>2516.421633107662</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7569,34 +7569,34 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
         <v>2171.280006238955</v>
@@ -7627,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
   </sheetData>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>294.8344935184725</v>
+        <v>294.8344935184734</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878346</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23466,19 +23466,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>31.20374480898994</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>191.8807364711619</v>
       </c>
       <c r="U22" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194174</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610399</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>10.85445046951719</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>104.8770068749575</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>634077.8302699273</v>
+        <v>634077.8302699272</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>634077.8302699272</v>
+        <v>634077.8302699273</v>
       </c>
     </row>
     <row r="11">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176757</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="F2" t="n">
+        <v>786967.9346977554</v>
+      </c>
+      <c r="G2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="H2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="J2" t="n">
-        <v>786967.9346977556</v>
-      </c>
       <c r="K2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="L2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="M2" t="n">
         <v>786967.934697756</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.9346977556</v>
       </c>
       <c r="N2" t="n">
         <v>786967.9346977557</v>
@@ -26355,7 +26355,7 @@
         <v>786967.934697756</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>1.755561243044213e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810782</v>
+        <v>88524.2351281079</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756548</v>
       </c>
       <c r="F4" t="n">
         <v>9337.200356756592</v>
@@ -26438,16 +26438,16 @@
         <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.20035675663</v>
+        <v>9337.200356756644</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756515</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756548</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="M4" t="n">
         <v>9337.200356756592</v>
@@ -26456,7 +26456,7 @@
         <v>9337.200356756592</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
         <v>9337.20035675659</v>
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-543900.1040901904</v>
+        <v>-543900.1040901906</v>
       </c>
       <c r="C6" t="n">
-        <v>570851.6794857294</v>
+        <v>570851.6794857292</v>
       </c>
       <c r="D6" t="n">
-        <v>411430.4094878366</v>
+        <v>411430.4094878368</v>
       </c>
       <c r="E6" t="n">
-        <v>350748.3634553804</v>
+        <v>351061.0047843011</v>
       </c>
       <c r="F6" t="n">
-        <v>676160.8252627354</v>
+        <v>676473.4665916561</v>
       </c>
       <c r="G6" t="n">
-        <v>676160.8252627351</v>
+        <v>676473.4665916567</v>
       </c>
       <c r="H6" t="n">
-        <v>676160.8252627352</v>
+        <v>676473.4665916567</v>
       </c>
       <c r="I6" t="n">
-        <v>676160.8252627354</v>
+        <v>676473.4665916564</v>
       </c>
       <c r="J6" t="n">
-        <v>508555.6474527522</v>
+        <v>508868.2887816739</v>
       </c>
       <c r="K6" t="n">
-        <v>676160.825262735</v>
+        <v>676473.4665916564</v>
       </c>
       <c r="L6" t="n">
-        <v>627866.8552545444</v>
+        <v>628179.4965834657</v>
       </c>
       <c r="M6" t="n">
-        <v>591105.7973272232</v>
+        <v>591418.4386561449</v>
       </c>
       <c r="N6" t="n">
-        <v>676160.8252627351</v>
+        <v>676473.4665916564</v>
       </c>
       <c r="O6" t="n">
-        <v>676160.8252627354</v>
+        <v>676473.4665916567</v>
       </c>
       <c r="P6" t="n">
-        <v>676160.8252627351</v>
+        <v>676473.4665916566</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26816,13 +26816,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>190.8166233022538</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973557</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>640.5848321000387</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>190.816623302254</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973554</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.5848321000385</v>
-      </c>
       <c r="K4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>95.51479900193362</v>
+        <v>95.51479900193323</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>99.12239335854184</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>189.3030739922127</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27791,7 +27791,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27830,7 +27830,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>46.91356563188745</v>
+        <v>46.91356563188788</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>69.86658336854956</v>
+        <v>69.86658336855089</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>24.68204843992146</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>17.26178070012961</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-9.642248685316911e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29334,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-1.676880856393836e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31849,13 +31849,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>537.6437863443698</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32086,7 +32086,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>244.0266243181833</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
@@ -32323,7 +32323,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>467.7715423565662</v>
+        <v>469.5567819573411</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32712,7 +32712,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L23" t="n">
         <v>867.846407116256</v>
@@ -32724,7 +32724,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
         <v>790.8204499236507</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33268,19 +33268,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>246.9596973201444</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>324.9782573297443</v>
+        <v>324.9782573297445</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33742,19 +33742,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>467.7715423565655</v>
+        <v>467.7715423565662</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33979,19 +33979,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>361.1081696176607</v>
+        <v>361.1081696176612</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
@@ -34786,13 +34786,13 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>630.2591755145955</v>
+        <v>630.2591755145964</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34801,7 +34801,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313194</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35497,13 +35497,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35734,7 +35734,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>101.892590396165</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35971,7 +35971,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>325.6375084345479</v>
+        <v>327.4227480353227</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36372,7 +36372,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>108.4053175402702</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>187.1368183553853</v>
+        <v>187.1368183553855</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>325.6375084345472</v>
+        <v>325.6375084345479</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>222.5537898377865</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
